--- a/src/test/resources/Data/Team2_APIDiet_Data .xlsx
+++ b/src/test/resources/Data/Team2_APIDiet_Data .xlsx
@@ -12,8 +12,9 @@
     <sheet name="update_WithMandatoryFields" sheetId="3" r:id="rId3"/>
     <sheet name="emptyMandatoryFields" sheetId="4" r:id="rId4"/>
     <sheet name="invaliddata" sheetId="5" r:id="rId5"/>
+    <sheet name="MorbidityTestname" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="191029" iterate="1" iterateCount="100" iterateDelta="0.001"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="50">
   <si>
     <t>password</t>
   </si>
@@ -157,6 +158,31 @@
   </si>
   <si>
     <t>14-11-1986hgk</t>
+  </si>
+  <si>
+    <t>TestName</t>
+  </si>
+  <si>
+    <t>morbiditytestName</t>
+  </si>
+  <si>
+    <t>Fasting Glucose</t>
+  </si>
+  <si>
+    <t>Average Glucose</t>
+  </si>
+  <si>
+    <t>Plasma Glucose</t>
+  </si>
+  <si>
+    <t>TSH</t>
+  </si>
+  <si>
+    <t>T3</t>
+  </si>
+  <si>
+    <t>T3
+T4</t>
   </si>
 </sst>
 </file>
@@ -796,8 +822,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -817,7 +846,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="6"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1140,14 +1169,14 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="4" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="8.88888888888889" customWidth="1"/>
-    <col min="2" max="2" width="22.8888888888889" customWidth="1"/>
-    <col min="3" max="3" width="12.5555555555556" customWidth="1"/>
+    <col min="2" max="2" width="51.7777777777778" customWidth="1"/>
+    <col min="3" max="3" width="13.7777777777778" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1168,7 +1197,7 @@
       <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="9" t="s">
         <v>5</v>
       </c>
       <c r="C2" t="s">
@@ -1222,7 +1251,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="Team10.admin@gmail.com"/>
+    <hyperlink ref="B2" r:id="rId1" display="Team10.admin@gmail.com" tooltip="mailto:Team10.admin@gmail.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="portrait" horizontalDpi="200" verticalDpi="200"/>
@@ -1253,31 +1282,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>21</v>
       </c>
       <c r="J1" t="s">
@@ -1285,34 +1314,34 @@
       </c>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="2">
         <v>1234567890</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="H2" s="4">
+      <c r="H2" s="5">
         <v>31730</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="J2" s="1">
+      <c r="J2" s="2">
         <v>200</v>
       </c>
     </row>
@@ -1329,78 +1358,83 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1" width="18.1111111111111" customWidth="1"/>
+    <col min="1" max="1" width="25.7777777777778" customWidth="1"/>
+    <col min="2" max="2" width="14.5555555555556" customWidth="1"/>
     <col min="4" max="4" width="22.7777777777778" customWidth="1"/>
     <col min="5" max="5" width="49" customWidth="1"/>
     <col min="6" max="6" width="24.2222222222222" customWidth="1"/>
-    <col min="7" max="7" width="39.6666666666667" customWidth="1"/>
-    <col min="8" max="8" width="37.7777777777778" customWidth="1"/>
-    <col min="9" max="9" width="43.3333333333333" customWidth="1"/>
+    <col min="7" max="8" width="39.6666666666667" customWidth="1"/>
+    <col min="9" max="9" width="37.7777777777778" customWidth="1"/>
+    <col min="10" max="10" width="43.3333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:10">
+      <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" ht="17.4" spans="1:9">
-      <c r="A2" s="1" t="s">
+    <row r="2" ht="17.4" spans="1:10">
+      <c r="A2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="2">
         <v>1234567891</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G2" s="4">
+      <c r="G2" s="5">
         <v>32824</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="5"/>
+      <c r="I2" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="I2" s="1">
+      <c r="J2" s="2">
         <v>200</v>
       </c>
     </row>
@@ -1437,31 +1471,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>21</v>
       </c>
       <c r="J1" t="s">
@@ -1469,20 +1503,20 @@
       </c>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="1" t="s">
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="H2" s="4"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="1">
+      <c r="H2" s="5"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="2">
         <v>400</v>
       </c>
     </row>
@@ -1514,31 +1548,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>21</v>
       </c>
       <c r="J1" t="s">
@@ -1546,34 +1580,34 @@
       </c>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="2">
         <v>12345678900</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="J2" s="1">
+      <c r="J2" s="2">
         <v>200</v>
       </c>
     </row>
@@ -1585,4 +1619,83 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="6" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="22.8888888888889" customWidth="1"/>
+    <col min="2" max="2" width="16.3333333333333" customWidth="1"/>
+    <col min="3" max="3" width="23.2222222222222" customWidth="1"/>
+    <col min="4" max="4" width="22.4444444444444" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" ht="28.8" spans="1:2">
+      <c r="A7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>